--- a/docs/Шаблон.xlsx
+++ b/docs/Шаблон.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex9\Documents\Projects\Python\Accounting\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C98388-16F8-4A80-B8E9-6701AAD85A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894C4BE8-89AD-4352-8A3C-34D3EC176ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{482F166F-E765-4A62-B796-B8F72A430B84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{482F166F-E765-4A62-B796-B8F72A430B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Шаблон" sheetId="1" r:id="rId1"/>
@@ -755,6 +755,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,9 +885,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,10 +1201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389EFF9F-A551-4B97-B4F6-918D9BF1CC21}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H288" sqref="H288:H289"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1231,34 +1232,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65" t="s">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-      <c r="I1" s="69" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
-      <c r="N1" s="72" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="N1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1283,17 +1284,25 @@
       <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="D3" s="2"/>
+      <c r="F3" s="1">
+        <f>IFERROR(E3/G3,0)</f>
+        <v>0</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="I3" s="2"/>
+      <c r="K3" s="1">
+        <f>IFERROR(J3/L3,0)</f>
+        <v>0</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="N3" s="5" t="s">
         <v>8</v>
@@ -1312,8 +1321,16 @@
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="D4" s="2"/>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F67" si="0">IFERROR(E4/G4,0)</f>
+        <v>0</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="I4" s="2"/>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K67" si="1">IFERROR(J4/L4,0)</f>
+        <v>0</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="N4" s="2" t="s">
         <v>12</v>
@@ -1327,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <f>O4-P4</f>
+        <f>P4-O4</f>
         <v>0</v>
       </c>
     </row>
@@ -1335,8 +1352,16 @@
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2"/>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="I5" s="2"/>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="N5" s="2" t="s">
         <v>13</v>
@@ -1350,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" ref="Q5:Q7" si="0">O5-P5</f>
+        <f t="shared" ref="Q5:Q7" si="2">P5-O5</f>
         <v>0</v>
       </c>
     </row>
@@ -1358,8 +1383,16 @@
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="D6" s="2"/>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="I6" s="2"/>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="N6" s="2" t="s">
         <v>14</v>
@@ -1373,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1381,8 +1414,16 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="D7" s="2"/>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="I7" s="2"/>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="N7" s="6" t="s">
         <v>15</v>
@@ -1396,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1404,8 +1445,16 @@
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="D8" s="2"/>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="I8" s="2"/>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="N8" s="2"/>
       <c r="O8" s="7"/>
@@ -1416,8 +1465,16 @@
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="2"/>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="I9" s="2"/>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="N9" s="2"/>
       <c r="O9" s="7"/>
@@ -1428,8 +1485,16 @@
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="D10" s="2"/>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="I10" s="2"/>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="N10" s="2"/>
       <c r="O10" s="7"/>
@@ -1440,8 +1505,16 @@
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="D11" s="2"/>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="I11" s="2"/>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="N11" s="2" t="s">
         <v>16</v>
@@ -1454,8 +1527,16 @@
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="D12" s="2"/>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="I12" s="2"/>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="N12" s="2" t="s">
         <v>17</v>
@@ -1468,8 +1549,16 @@
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="2"/>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="I13" s="2"/>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="N13" s="2" t="s">
         <v>18</v>
@@ -1482,8 +1571,16 @@
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="D14" s="2"/>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="I14" s="2"/>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9">
@@ -1495,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="10">
-        <f>O14-P14</f>
+        <f>P14-O14</f>
         <v>0</v>
       </c>
     </row>
@@ -1503,16 +1600,32 @@
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="2"/>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="I15" s="2"/>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="2"/>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="I16" s="2"/>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -1523,63 +1636,103 @@
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="D17" s="2"/>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="I17" s="2"/>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L17" s="3"/>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="D18" s="2"/>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="I18" s="2"/>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L18" s="3"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="D19" s="2"/>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="I19" s="2"/>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L19" s="3"/>
-      <c r="N19" s="62" t="s">
+      <c r="N19" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="57">
+      <c r="O19" s="63"/>
+      <c r="P19" s="58">
         <f>B197</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="57"/>
+      <c r="Q19" s="58"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="D20" s="2"/>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="I20" s="2"/>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L20" s="3"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="D21" s="2"/>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="I21" s="2"/>
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
@@ -1590,8 +1743,16 @@
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="D22" s="2"/>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="I22" s="2"/>
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
@@ -1602,63 +1763,100 @@
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="D23" s="2"/>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="I23" s="2"/>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L23" s="3"/>
-      <c r="N23" s="55" t="s">
+      <c r="N23" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="D24" s="2"/>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="I24" s="2"/>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L24" s="3"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="D25" s="2"/>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="I25" s="2"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L25" s="3"/>
-      <c r="N25" s="55" t="s">
+      <c r="N25" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="D26" s="2"/>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="I26" s="2"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L26" s="3"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="D27" s="2"/>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="I27" s="2"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="N27" s="30" t="s">
         <v>21</v>
@@ -1666,68 +1864,98 @@
       <c r="O27" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="55" t="s">
+      <c r="P27" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="Q27" s="55"/>
+      <c r="Q27" s="56"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="D28" s="2"/>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="I28" s="2"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L28" s="3"/>
-      <c r="N28" s="57">
+      <c r="N28" s="58">
         <f>B197</f>
         <v>0</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="58">
         <f>L203</f>
         <v>0</v>
       </c>
-      <c r="P28" s="61">
+      <c r="P28" s="62">
         <f>N28+O28</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="61"/>
+      <c r="Q28" s="62"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="D29" s="2"/>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="I29" s="2"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L29" s="3"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="D30" s="2"/>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="I30" s="2"/>
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="D31" s="2"/>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="I31" s="2"/>
+      <c r="K31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L31" s="3"/>
-      <c r="N31" s="55" t="s">
+      <c r="N31" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56" t="s">
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="57" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1735,42 +1963,66 @@
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="D32" s="2"/>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="I32" s="2"/>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L32" s="3"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="57"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="D33" s="2"/>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="I33" s="2"/>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L33" s="3"/>
-      <c r="N33" s="55" t="s">
+      <c r="N33" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="57"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="D34" s="2"/>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="I34" s="2"/>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L34" s="3"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="56">
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="57">
         <v>99.92</v>
       </c>
     </row>
@@ -1778,8 +2030,16 @@
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="D35" s="2"/>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="I35" s="2"/>
+      <c r="K35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="N35" s="30" t="s">
         <v>21</v>
@@ -1787,101 +2047,157 @@
       <c r="O35" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="P35" s="55" t="s">
+      <c r="P35" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="57"/>
     </row>
     <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="D36" s="2"/>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="I36" s="2"/>
+      <c r="K36" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L36" s="3"/>
-      <c r="N36" s="57">
+      <c r="N36" s="58">
         <f>N28/R34</f>
         <v>0</v>
       </c>
-      <c r="O36" s="59">
+      <c r="O36" s="60">
         <f>O28/R34</f>
         <v>0</v>
       </c>
-      <c r="P36" s="61">
+      <c r="P36" s="62">
         <f>N36+O36</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="56"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="57"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="D37" s="2"/>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="I37" s="2"/>
+      <c r="K37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L37" s="3"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="56"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="D38" s="2"/>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="I38" s="2"/>
+      <c r="K38" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="D39" s="2"/>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="I39" s="2"/>
+      <c r="K39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="D40" s="2"/>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="I40" s="2"/>
+      <c r="K40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L40" s="3"/>
-      <c r="N40" s="55" t="s">
+      <c r="N40" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="D41" s="2"/>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="I41" s="2"/>
+      <c r="K41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L41" s="3"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="D42" s="2"/>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="I42" s="2"/>
+      <c r="K42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L42" s="3"/>
-      <c r="N42" s="56" t="s">
+      <c r="N42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="O42" s="56" t="s">
+      <c r="O42" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="P42" s="56" t="s">
+      <c r="P42" s="57" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1889,39 +2205,63 @@
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="D43" s="2"/>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="I43" s="2"/>
+      <c r="K43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L43" s="3"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="D44" s="2"/>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="I44" s="2"/>
+      <c r="K44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L44" s="3"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="D45" s="2"/>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="I45" s="2"/>
+      <c r="K45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L45" s="3"/>
-      <c r="N45" s="57">
-        <f>0.02*P28</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="57">
-        <v>0</v>
-      </c>
-      <c r="P45" s="57">
+      <c r="N45" s="58">
+        <f>0.2*P28</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="58">
+        <v>0</v>
+      </c>
+      <c r="P45" s="58">
         <f>N45+O45</f>
         <v>0</v>
       </c>
@@ -1930,1127 +2270,2199 @@
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="D46" s="2"/>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="I46" s="2"/>
+      <c r="K46" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L46" s="3"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="D47" s="2"/>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="I47" s="2"/>
+      <c r="K47" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="D48" s="2"/>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="I48" s="2"/>
+      <c r="K48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="D49" s="2"/>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="I49" s="2"/>
+      <c r="K49" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L49" s="3"/>
-      <c r="N49" s="58" t="s">
+      <c r="N49" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="D50" s="2"/>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="I50" s="2"/>
+      <c r="K50" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L50" s="3"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="D51" s="2"/>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="I51" s="2"/>
+      <c r="K51" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L51" s="3"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="58"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="D52" s="2"/>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="I52" s="2"/>
+      <c r="K52" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L52" s="3"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58"/>
-      <c r="R52" s="58"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="D53" s="2"/>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="I53" s="2"/>
+      <c r="K53" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L53" s="3"/>
-      <c r="N53" s="56" t="s">
+      <c r="N53" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56" t="s">
+      <c r="O53" s="57"/>
+      <c r="P53" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="D54" s="2"/>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G54" s="3"/>
       <c r="I54" s="2"/>
+      <c r="K54" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L54" s="3"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="D55" s="2"/>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="I55" s="2"/>
+      <c r="K55" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L55" s="3"/>
-      <c r="N55" s="57">
+      <c r="N55" s="58">
         <f>P28-P45</f>
         <v>0</v>
       </c>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57">
+      <c r="O55" s="58"/>
+      <c r="P55" s="58">
         <f>N55/R34</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="57"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="58"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="D56" s="2"/>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="I56" s="2"/>
+      <c r="K56" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L56" s="3"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="57"/>
+      <c r="N56" s="58"/>
+      <c r="O56" s="58"/>
+      <c r="P56" s="58"/>
+      <c r="Q56" s="58"/>
+      <c r="R56" s="58"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="D57" s="2"/>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="I57" s="2"/>
+      <c r="K57" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="D58" s="2"/>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="I58" s="2"/>
+      <c r="K58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="D59" s="2"/>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="I59" s="2"/>
+      <c r="K59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="D60" s="2"/>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G60" s="3"/>
       <c r="I60" s="2"/>
+      <c r="K60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="D61" s="2"/>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="I61" s="2"/>
+      <c r="K61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="D62" s="2"/>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G62" s="3"/>
       <c r="I62" s="2"/>
+      <c r="K62" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="D63" s="2"/>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="I63" s="2"/>
+      <c r="K63" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="D64" s="2"/>
+      <c r="F64" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G64" s="3"/>
       <c r="I64" s="2"/>
+      <c r="K64" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="D65" s="2"/>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="I65" s="2"/>
+      <c r="K65" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="D66" s="2"/>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G66" s="3"/>
       <c r="I66" s="2"/>
+      <c r="K66" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="D67" s="2"/>
+      <c r="F67" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G67" s="3"/>
       <c r="I67" s="2"/>
+      <c r="K67" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L67" s="3"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="D68" s="2"/>
+      <c r="F68" s="1">
+        <f t="shared" ref="F68:F131" si="3">IFERROR(E68/G68,0)</f>
+        <v>0</v>
+      </c>
       <c r="G68" s="3"/>
       <c r="I68" s="2"/>
+      <c r="K68" s="1">
+        <f t="shared" ref="K68:K131" si="4">IFERROR(J68/L68,0)</f>
+        <v>0</v>
+      </c>
       <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="D69" s="2"/>
+      <c r="F69" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G69" s="3"/>
       <c r="I69" s="2"/>
+      <c r="K69" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="D70" s="2"/>
+      <c r="F70" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G70" s="3"/>
       <c r="I70" s="2"/>
+      <c r="K70" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="D71" s="2"/>
+      <c r="F71" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G71" s="3"/>
       <c r="I71" s="2"/>
+      <c r="K71" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="D72" s="2"/>
+      <c r="F72" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G72" s="3"/>
       <c r="I72" s="2"/>
+      <c r="K72" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="D73" s="2"/>
+      <c r="F73" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="I73" s="2"/>
+      <c r="K73" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="D74" s="2"/>
+      <c r="F74" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="I74" s="2"/>
+      <c r="K74" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="D75" s="2"/>
+      <c r="F75" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="I75" s="2"/>
+      <c r="K75" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="D76" s="2"/>
+      <c r="F76" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G76" s="3"/>
       <c r="I76" s="2"/>
+      <c r="K76" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="D77" s="2"/>
+      <c r="F77" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G77" s="3"/>
       <c r="I77" s="2"/>
+      <c r="K77" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L77" s="3"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="D78" s="2"/>
+      <c r="F78" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="I78" s="2"/>
+      <c r="K78" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="D79" s="2"/>
+      <c r="F79" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G79" s="3"/>
       <c r="I79" s="2"/>
+      <c r="K79" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="D80" s="2"/>
+      <c r="F80" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G80" s="3"/>
       <c r="I80" s="2"/>
+      <c r="K80" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="D81" s="6"/>
+      <c r="F81" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G81" s="3"/>
       <c r="I81" s="2"/>
+      <c r="K81" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L81" s="3"/>
     </row>
     <row r="82" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="D82" s="6"/>
+      <c r="F82" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="I82" s="2"/>
+      <c r="K82" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L82" s="3"/>
     </row>
     <row r="83" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="D83" s="6"/>
+      <c r="F83" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="I83" s="2"/>
+      <c r="K83" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="D84" s="6"/>
+      <c r="F84" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G84" s="3"/>
       <c r="I84" s="2"/>
+      <c r="K84" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L84" s="3"/>
     </row>
     <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="D85" s="6"/>
+      <c r="F85" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G85" s="3"/>
       <c r="I85" s="2"/>
+      <c r="K85" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L85" s="3"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="D86" s="2"/>
+      <c r="F86" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G86" s="3"/>
       <c r="I86" s="2"/>
+      <c r="K86" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L86" s="3"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="D87" s="2"/>
+      <c r="F87" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="I87" s="2"/>
+      <c r="K87" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L87" s="3"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="D88" s="2"/>
+      <c r="F88" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G88" s="3"/>
       <c r="I88" s="2"/>
+      <c r="K88" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L88" s="3"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="D89" s="2"/>
+      <c r="F89" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="I89" s="2"/>
+      <c r="K89" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L89" s="3"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="D90" s="2"/>
+      <c r="F90" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G90" s="3"/>
       <c r="I90" s="2"/>
+      <c r="K90" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L90" s="3"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="D91" s="2"/>
+      <c r="F91" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G91" s="3"/>
       <c r="I91" s="2"/>
+      <c r="K91" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L91" s="3"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="D92" s="2"/>
+      <c r="F92" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G92" s="3"/>
       <c r="I92" s="2"/>
+      <c r="K92" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L92" s="3"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="D93" s="2"/>
+      <c r="F93" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G93" s="3"/>
       <c r="I93" s="2"/>
+      <c r="K93" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L93" s="3"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="D94" s="2"/>
+      <c r="F94" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G94" s="3"/>
       <c r="I94" s="2"/>
+      <c r="K94" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L94" s="3"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="D95" s="2"/>
+      <c r="F95" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G95" s="3"/>
       <c r="I95" s="2"/>
+      <c r="K95" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L95" s="3"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="D96" s="2"/>
+      <c r="F96" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G96" s="3"/>
       <c r="I96" s="2"/>
+      <c r="K96" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L96" s="3"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="D97" s="2"/>
+      <c r="F97" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G97" s="3"/>
       <c r="I97" s="2"/>
+      <c r="K97" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L97" s="3"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="D98" s="2"/>
+      <c r="F98" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G98" s="3"/>
       <c r="I98" s="2"/>
+      <c r="K98" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L98" s="3"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="D99" s="2"/>
+      <c r="F99" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G99" s="3"/>
       <c r="I99" s="2"/>
+      <c r="K99" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L99" s="3"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="D100" s="2"/>
+      <c r="F100" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G100" s="3"/>
       <c r="I100" s="2"/>
+      <c r="K100" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L100" s="3"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="D101" s="2"/>
+      <c r="F101" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="I101" s="2"/>
+      <c r="K101" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L101" s="3"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="D102" s="2"/>
+      <c r="F102" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G102" s="3"/>
       <c r="I102" s="2"/>
+      <c r="K102" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L102" s="3"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="D103" s="2"/>
+      <c r="F103" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G103" s="3"/>
       <c r="I103" s="2"/>
+      <c r="K103" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L103" s="3"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="D104" s="2"/>
+      <c r="F104" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G104" s="3"/>
       <c r="I104" s="2"/>
+      <c r="K104" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L104" s="3"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="D105" s="2"/>
+      <c r="F105" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G105" s="3"/>
       <c r="I105" s="2"/>
+      <c r="K105" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L105" s="3"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="D106" s="2"/>
+      <c r="F106" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G106" s="3"/>
       <c r="I106" s="2"/>
+      <c r="K106" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L106" s="3"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="D107" s="2"/>
+      <c r="F107" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G107" s="3"/>
       <c r="I107" s="2"/>
+      <c r="K107" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L107" s="3"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="D108" s="2"/>
+      <c r="F108" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G108" s="3"/>
       <c r="I108" s="2"/>
+      <c r="K108" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L108" s="3"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="D109" s="2"/>
+      <c r="F109" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G109" s="3"/>
       <c r="I109" s="2"/>
+      <c r="K109" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="D110" s="2"/>
+      <c r="F110" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G110" s="3"/>
       <c r="I110" s="2"/>
+      <c r="K110" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L110" s="3"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="D111" s="2"/>
+      <c r="F111" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G111" s="3"/>
       <c r="I111" s="2"/>
+      <c r="K111" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L111" s="3"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="D112" s="2"/>
+      <c r="F112" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G112" s="3"/>
       <c r="I112" s="2"/>
+      <c r="K112" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L112" s="3"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="D113" s="2"/>
+      <c r="F113" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G113" s="3"/>
       <c r="I113" s="2"/>
+      <c r="K113" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L113" s="3"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="D114" s="2"/>
+      <c r="F114" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G114" s="3"/>
       <c r="I114" s="2"/>
+      <c r="K114" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L114" s="3"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="D115" s="2"/>
+      <c r="F115" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G115" s="3"/>
       <c r="I115" s="2"/>
+      <c r="K115" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L115" s="3"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="D116" s="2"/>
+      <c r="F116" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G116" s="3"/>
       <c r="I116" s="2"/>
+      <c r="K116" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="D117" s="2"/>
+      <c r="F117" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G117" s="3"/>
       <c r="I117" s="2"/>
+      <c r="K117" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="D118" s="2"/>
+      <c r="F118" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G118" s="3"/>
       <c r="I118" s="2"/>
+      <c r="K118" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L118" s="3"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="D119" s="2"/>
+      <c r="F119" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G119" s="3"/>
       <c r="I119" s="2"/>
+      <c r="K119" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L119" s="3"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="D120" s="2"/>
+      <c r="F120" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G120" s="3"/>
       <c r="I120" s="2"/>
+      <c r="K120" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L120" s="3"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="D121" s="2"/>
+      <c r="F121" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G121" s="3"/>
       <c r="I121" s="2"/>
+      <c r="K121" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L121" s="3"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="D122" s="2"/>
+      <c r="F122" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G122" s="3"/>
       <c r="I122" s="2"/>
+      <c r="K122" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L122" s="3"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="D123" s="2"/>
+      <c r="F123" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G123" s="3"/>
       <c r="I123" s="2"/>
+      <c r="K123" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L123" s="3"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="D124" s="2"/>
+      <c r="F124" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G124" s="3"/>
       <c r="I124" s="2"/>
+      <c r="K124" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L124" s="3"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="D125" s="2"/>
+      <c r="F125" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G125" s="3"/>
       <c r="I125" s="2"/>
+      <c r="K125" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L125" s="3"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="D126" s="2"/>
+      <c r="F126" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G126" s="3"/>
       <c r="I126" s="2"/>
+      <c r="K126" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L126" s="3"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="D127" s="2"/>
+      <c r="F127" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G127" s="3"/>
       <c r="I127" s="2"/>
+      <c r="K127" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L127" s="3"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="D128" s="2"/>
+      <c r="F128" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G128" s="3"/>
       <c r="I128" s="2"/>
+      <c r="K128" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L128" s="3"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="D129" s="2"/>
+      <c r="F129" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G129" s="3"/>
       <c r="I129" s="2"/>
+      <c r="K129" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L129" s="3"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="D130" s="2"/>
+      <c r="F130" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G130" s="3"/>
       <c r="I130" s="2"/>
+      <c r="K130" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L130" s="3"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="D131" s="2"/>
+      <c r="F131" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G131" s="3"/>
       <c r="I131" s="2"/>
+      <c r="K131" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L131" s="3"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="D132" s="2"/>
+      <c r="F132" s="1">
+        <f t="shared" ref="F132:F179" si="5">IFERROR(E132/G132,0)</f>
+        <v>0</v>
+      </c>
       <c r="G132" s="3"/>
       <c r="I132" s="2"/>
+      <c r="K132" s="1">
+        <f t="shared" ref="K132:K195" si="6">IFERROR(J132/L132,0)</f>
+        <v>0</v>
+      </c>
       <c r="L132" s="3"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="D133" s="2"/>
+      <c r="F133" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G133" s="3"/>
       <c r="I133" s="2"/>
+      <c r="K133" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L133" s="3"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="D134" s="2"/>
+      <c r="F134" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G134" s="3"/>
       <c r="I134" s="2"/>
+      <c r="K134" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L134" s="3"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="D135" s="2"/>
+      <c r="F135" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G135" s="3"/>
       <c r="I135" s="2"/>
+      <c r="K135" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L135" s="3"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="D136" s="2"/>
+      <c r="F136" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G136" s="3"/>
       <c r="I136" s="2"/>
+      <c r="K136" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L136" s="3"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="D137" s="2"/>
+      <c r="F137" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G137" s="3"/>
       <c r="I137" s="2"/>
+      <c r="K137" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L137" s="3"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="D138" s="2"/>
+      <c r="F138" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G138" s="3"/>
       <c r="I138" s="2"/>
+      <c r="K138" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L138" s="3"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="D139" s="2"/>
+      <c r="F139" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G139" s="3"/>
       <c r="I139" s="2"/>
+      <c r="K139" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L139" s="3"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="D140" s="2"/>
+      <c r="F140" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G140" s="3"/>
       <c r="I140" s="2"/>
+      <c r="K140" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L140" s="3"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="D141" s="2"/>
+      <c r="F141" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G141" s="3"/>
       <c r="I141" s="2"/>
+      <c r="K141" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L141" s="3"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="D142" s="2"/>
+      <c r="F142" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G142" s="3"/>
       <c r="I142" s="2"/>
+      <c r="K142" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L142" s="3"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="D143" s="2"/>
+      <c r="F143" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G143" s="3"/>
       <c r="I143" s="2"/>
+      <c r="K143" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L143" s="3"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="D144" s="2"/>
+      <c r="F144" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G144" s="3"/>
       <c r="I144" s="2"/>
+      <c r="K144" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L144" s="3"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="D145" s="2"/>
+      <c r="F145" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G145" s="3"/>
       <c r="I145" s="2"/>
+      <c r="K145" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L145" s="3"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="D146" s="2"/>
+      <c r="F146" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G146" s="3"/>
       <c r="I146" s="2"/>
+      <c r="K146" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L146" s="3"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="D147" s="2"/>
+      <c r="F147" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G147" s="3"/>
       <c r="I147" s="2"/>
+      <c r="K147" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L147" s="3"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="D148" s="2"/>
+      <c r="F148" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G148" s="3"/>
       <c r="I148" s="2"/>
+      <c r="K148" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L148" s="3"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="D149" s="2"/>
+      <c r="F149" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G149" s="3"/>
       <c r="I149" s="2"/>
+      <c r="K149" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L149" s="3"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="D150" s="2"/>
+      <c r="F150" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G150" s="3"/>
       <c r="I150" s="2"/>
+      <c r="K150" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L150" s="3"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="D151" s="2"/>
+      <c r="F151" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G151" s="3"/>
       <c r="I151" s="2"/>
+      <c r="K151" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L151" s="3"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="D152" s="2"/>
+      <c r="F152" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G152" s="3"/>
       <c r="I152" s="2"/>
+      <c r="K152" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L152" s="3"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="D153" s="2"/>
+      <c r="F153" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G153" s="3"/>
       <c r="I153" s="2"/>
+      <c r="K153" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L153" s="3"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="D154" s="2"/>
+      <c r="F154" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G154" s="3"/>
       <c r="I154" s="2"/>
+      <c r="K154" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L154" s="3"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="D155" s="2"/>
+      <c r="F155" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G155" s="3"/>
       <c r="I155" s="2"/>
+      <c r="K155" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L155" s="3"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="D156" s="2"/>
+      <c r="F156" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G156" s="3"/>
       <c r="I156" s="2"/>
+      <c r="K156" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L156" s="3"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="D157" s="2"/>
+      <c r="F157" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G157" s="3"/>
       <c r="I157" s="2"/>
+      <c r="K157" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L157" s="3"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="D158" s="2"/>
+      <c r="F158" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G158" s="3"/>
       <c r="I158" s="2"/>
+      <c r="K158" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L158" s="3"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="D159" s="2"/>
+      <c r="F159" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G159" s="3"/>
       <c r="I159" s="2"/>
+      <c r="K159" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L159" s="3"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="D160" s="2"/>
+      <c r="F160" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G160" s="3"/>
       <c r="I160" s="2"/>
+      <c r="K160" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L160" s="3"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="D161" s="2"/>
+      <c r="F161" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G161" s="3"/>
       <c r="I161" s="2"/>
+      <c r="K161" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L161" s="3"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="D162" s="2"/>
+      <c r="F162" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G162" s="3"/>
       <c r="I162" s="2"/>
+      <c r="K162" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L162" s="3"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="D163" s="2"/>
+      <c r="F163" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G163" s="3"/>
       <c r="I163" s="2"/>
+      <c r="K163" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L163" s="3"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="D164" s="2"/>
+      <c r="F164" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G164" s="3"/>
       <c r="I164" s="2"/>
+      <c r="K164" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L164" s="3"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="D165" s="2"/>
+      <c r="F165" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G165" s="3"/>
       <c r="I165" s="2"/>
+      <c r="K165" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L165" s="3"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="D166" s="2"/>
+      <c r="F166" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G166" s="3"/>
       <c r="I166" s="2"/>
+      <c r="K166" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L166" s="3"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="D167" s="2"/>
+      <c r="F167" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G167" s="3"/>
       <c r="I167" s="2"/>
+      <c r="K167" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="D168" s="2"/>
+      <c r="F168" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G168" s="3"/>
       <c r="I168" s="2"/>
+      <c r="K168" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="D169" s="2"/>
+      <c r="F169" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G169" s="3"/>
       <c r="I169" s="2"/>
+      <c r="K169" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="D170" s="2"/>
+      <c r="F170" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G170" s="3"/>
       <c r="I170" s="2"/>
+      <c r="K170" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L170" s="3"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="D171" s="2"/>
+      <c r="F171" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G171" s="3"/>
       <c r="I171" s="2"/>
+      <c r="K171" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L171" s="3"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="D172" s="2"/>
+      <c r="F172" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G172" s="3"/>
       <c r="I172" s="2"/>
+      <c r="K172" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L172" s="3"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="D173" s="2"/>
+      <c r="F173" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G173" s="3"/>
       <c r="I173" s="2"/>
+      <c r="K173" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="D174" s="2"/>
+      <c r="F174" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G174" s="3"/>
       <c r="I174" s="2"/>
+      <c r="K174" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="D175" s="2"/>
+      <c r="F175" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G175" s="3"/>
       <c r="I175" s="2"/>
+      <c r="K175" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="D176" s="2"/>
+      <c r="F176" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G176" s="3"/>
       <c r="I176" s="2"/>
+      <c r="K176" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L176" s="3"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="D177" s="2"/>
+      <c r="F177" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G177" s="3"/>
       <c r="I177" s="2"/>
+      <c r="K177" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L177" s="3"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="D178" s="2"/>
+      <c r="F178" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G178" s="3"/>
       <c r="I178" s="2"/>
+      <c r="K178" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L178" s="3"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="D179" s="2"/>
+      <c r="F179" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G179" s="3"/>
       <c r="I179" s="2"/>
+      <c r="K179" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L179" s="3"/>
     </row>
     <row r="180" spans="1:12" ht="18" x14ac:dyDescent="0.25">
@@ -3075,6 +4487,10 @@
         <v>0</v>
       </c>
       <c r="I180" s="2"/>
+      <c r="K180" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L180" s="3"/>
     </row>
     <row r="181" spans="1:12" ht="18" x14ac:dyDescent="0.25">
@@ -3099,6 +4515,10 @@
         <v>0</v>
       </c>
       <c r="I181" s="2"/>
+      <c r="K181" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L181" s="3"/>
     </row>
     <row r="182" spans="1:12" ht="18" x14ac:dyDescent="0.25">
@@ -3123,6 +4543,10 @@
         <v>0</v>
       </c>
       <c r="I182" s="2"/>
+      <c r="K182" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L182" s="3"/>
     </row>
     <row r="183" spans="1:12" ht="18" x14ac:dyDescent="0.25">
@@ -3147,6 +4571,10 @@
         <v>0</v>
       </c>
       <c r="I183" s="2"/>
+      <c r="K183" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L183" s="3"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -3155,6 +4583,10 @@
       <c r="D184" s="2"/>
       <c r="G184" s="3"/>
       <c r="I184" s="2"/>
+      <c r="K184" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L184" s="3"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -3168,6 +4600,10 @@
       <c r="F185" s="16"/>
       <c r="G185" s="17"/>
       <c r="I185" s="2"/>
+      <c r="K185" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L185" s="3"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -3185,6 +4621,10 @@
       </c>
       <c r="G186" s="3"/>
       <c r="I186" s="2"/>
+      <c r="K186" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L186" s="3"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -3197,11 +4637,15 @@
         <v>15</v>
       </c>
       <c r="E187" s="1">
-        <f t="shared" ref="E187:E193" si="1">IFERROR(F187*G187,0)</f>
+        <f t="shared" ref="E187:E193" si="7">IFERROR(F187*G187,0)</f>
         <v>0</v>
       </c>
       <c r="G187" s="3"/>
       <c r="I187" s="2"/>
+      <c r="K187" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L187" s="3"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -3219,6 +4663,10 @@
       </c>
       <c r="G188" s="3"/>
       <c r="I188" s="2"/>
+      <c r="K188" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L188" s="3"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -3231,15 +4679,19 @@
         <v>12</v>
       </c>
       <c r="E189" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F189" s="1" cm="1">
         <f t="array" ref="F189">IFERROR(IF(COUNTIF($D$3:$D$135,"exnode")&gt;0, AVERAGE(_xlfn._xlws.FILTER($F$3:$F$118,$D$3:$D$118="exnode")), 0),0)</f>
         <v>0</v>
       </c>
-      <c r="G189" s="78"/>
+      <c r="G189" s="35"/>
       <c r="I189" s="2"/>
+      <c r="K189" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L189" s="3"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -3252,15 +4704,19 @@
         <v>13</v>
       </c>
       <c r="E190" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F190" s="32" cm="1">
         <f t="array" ref="F190">IFERROR(IF(COUNTIF($D$3:$D$135,"garantex")&gt;0, AVERAGE(_xlfn._xlws.FILTER($F$3:$F$118,$D$3:$D$118="garantex")), 0),0)</f>
         <v>0</v>
       </c>
-      <c r="G190" s="78"/>
+      <c r="G190" s="35"/>
       <c r="I190" s="2"/>
+      <c r="K190" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L190" s="3"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -3273,7 +4729,7 @@
         <v>14</v>
       </c>
       <c r="E191" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F191" s="32" cm="1">
@@ -3285,6 +4741,10 @@
         <v>0</v>
       </c>
       <c r="I191" s="2"/>
+      <c r="K191" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L191" s="3"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -3297,7 +4757,7 @@
         <v>15</v>
       </c>
       <c r="E192" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F192" s="1" cm="1">
@@ -3309,6 +4769,10 @@
         <v>0</v>
       </c>
       <c r="I192" s="2"/>
+      <c r="K192" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L192" s="3"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -3321,11 +4785,15 @@
         <v>14</v>
       </c>
       <c r="E193" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G193" s="3"/>
       <c r="I193" s="2"/>
+      <c r="K193" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L193" s="3"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -3343,6 +4811,10 @@
       </c>
       <c r="G194" s="3"/>
       <c r="I194" s="2"/>
+      <c r="K194" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L194" s="3"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -3360,6 +4832,10 @@
       </c>
       <c r="G195" s="3"/>
       <c r="I195" s="2"/>
+      <c r="K195" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L195" s="3"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -3378,14 +4854,18 @@
       <c r="F196" s="19"/>
       <c r="G196" s="20"/>
       <c r="I196" s="2"/>
+      <c r="K196" s="1">
+        <f t="shared" ref="K196" si="8">IFERROR(J196/L196,0)</f>
+        <v>0</v>
+      </c>
       <c r="L196" s="3"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="51">
+      <c r="A197" s="52">
         <f>SUM(A3:A196)</f>
         <v>0</v>
       </c>
-      <c r="B197" s="53">
+      <c r="B197" s="54">
         <f>SUM(B2:B196)</f>
         <v>0</v>
       </c>
@@ -3402,8 +4882,8 @@
       <c r="L197" s="23"/>
     </row>
     <row r="198" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A198" s="52"/>
-      <c r="B198" s="54"/>
+      <c r="A198" s="53"/>
+      <c r="B198" s="55"/>
       <c r="D198" s="8"/>
       <c r="E198" s="24">
         <f>SUM(E3:E196)</f>
@@ -3414,7 +4894,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G198" s="25">
-        <f t="shared" ref="G198" si="2">SUM(G3:G196)</f>
+        <f t="shared" ref="G198" si="9">SUM(G3:G196)</f>
         <v>0</v>
       </c>
       <c r="H198" s="27" t="e">
@@ -3431,7 +4911,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L198" s="25">
-        <f t="shared" ref="L198" si="3">SUM(L3:L196)</f>
+        <f t="shared" ref="L198" si="10">SUM(L3:L196)</f>
         <v>0</v>
       </c>
     </row>
@@ -3465,88 +4945,88 @@
       <c r="F205" s="11"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="39" t="s">
+      <c r="A206" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B206" s="40"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="40"/>
-      <c r="E206" s="40"/>
-      <c r="F206" s="41"/>
-      <c r="G206" s="39" t="s">
+      <c r="B206" s="41"/>
+      <c r="C206" s="41"/>
+      <c r="D206" s="41"/>
+      <c r="E206" s="41"/>
+      <c r="F206" s="42"/>
+      <c r="G206" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H206" s="40"/>
-      <c r="I206" s="40"/>
-      <c r="J206" s="40"/>
-      <c r="K206" s="40"/>
-      <c r="L206" s="41"/>
+      <c r="H206" s="41"/>
+      <c r="I206" s="41"/>
+      <c r="J206" s="41"/>
+      <c r="K206" s="41"/>
+      <c r="L206" s="42"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="42"/>
-      <c r="B207" s="43"/>
-      <c r="C207" s="43"/>
-      <c r="D207" s="43"/>
-      <c r="E207" s="43"/>
-      <c r="F207" s="44"/>
-      <c r="G207" s="42"/>
-      <c r="H207" s="43"/>
-      <c r="I207" s="43"/>
-      <c r="J207" s="43"/>
-      <c r="K207" s="43"/>
-      <c r="L207" s="44"/>
+      <c r="A207" s="43"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="44"/>
+      <c r="D207" s="44"/>
+      <c r="E207" s="44"/>
+      <c r="F207" s="45"/>
+      <c r="G207" s="43"/>
+      <c r="H207" s="44"/>
+      <c r="I207" s="44"/>
+      <c r="J207" s="44"/>
+      <c r="K207" s="44"/>
+      <c r="L207" s="45"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="45" t="s">
+      <c r="A208" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="35" t="s">
+      <c r="B208" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C208" s="35" t="s">
+      <c r="C208" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D208" s="35" t="s">
+      <c r="D208" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E208" s="35" t="s">
+      <c r="E208" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F208" s="37" t="s">
+      <c r="F208" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G208" s="45" t="s">
+      <c r="G208" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H208" s="35" t="s">
+      <c r="H208" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I208" s="35" t="s">
+      <c r="I208" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="J208" s="35" t="s">
+      <c r="J208" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="K208" s="35" t="s">
+      <c r="K208" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L208" s="37" t="s">
+      <c r="L208" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="46"/>
-      <c r="B209" s="36"/>
-      <c r="C209" s="36"/>
-      <c r="D209" s="36"/>
-      <c r="E209" s="36"/>
-      <c r="F209" s="38"/>
-      <c r="G209" s="46"/>
-      <c r="H209" s="36"/>
-      <c r="I209" s="36"/>
-      <c r="J209" s="36"/>
-      <c r="K209" s="36"/>
-      <c r="L209" s="38"/>
+      <c r="A209" s="47"/>
+      <c r="B209" s="37"/>
+      <c r="C209" s="37"/>
+      <c r="D209" s="37"/>
+      <c r="E209" s="37"/>
+      <c r="F209" s="39"/>
+      <c r="G209" s="47"/>
+      <c r="H209" s="37"/>
+      <c r="I209" s="37"/>
+      <c r="J209" s="37"/>
+      <c r="K209" s="37"/>
+      <c r="L209" s="39"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="33"/>
@@ -3554,11 +5034,11 @@
       <c r="C210" s="34"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7">
-        <f t="shared" ref="E210:E244" si="4">IFERROR(C210*D210,0)</f>
+        <f t="shared" ref="E210:E244" si="11">IFERROR(C210*D210,0)</f>
         <v>0</v>
       </c>
       <c r="F210" s="29">
-        <f t="shared" ref="F210:F244" si="5">IFERROR(A210/E210,0)</f>
+        <f t="shared" ref="F210:F244" si="12">IFERROR(A210/E210,0)</f>
         <v>0</v>
       </c>
       <c r="G210" s="33"/>
@@ -3580,11 +5060,11 @@
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F211" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G211" s="28"/>
@@ -3592,11 +5072,11 @@
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7">
-        <f t="shared" ref="K211:K244" si="6">IFERROR(I211*J211,0)</f>
+        <f t="shared" ref="K211:K244" si="13">IFERROR(I211*J211,0)</f>
         <v>0</v>
       </c>
       <c r="L211" s="29">
-        <f t="shared" ref="L211:L244" si="7">IFERROR(G211/K211,0)</f>
+        <f t="shared" ref="L211:L244" si="14">IFERROR(G211/K211,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3606,11 +5086,11 @@
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F212" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G212" s="28"/>
@@ -3618,11 +5098,11 @@
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
       <c r="K212" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L212" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3632,11 +5112,11 @@
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F213" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G213" s="28"/>
@@ -3644,11 +5124,11 @@
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L213" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3658,11 +5138,11 @@
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F214" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G214" s="28"/>
@@ -3670,11 +5150,11 @@
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
       <c r="K214" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L214" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3684,11 +5164,11 @@
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F215" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G215" s="28"/>
@@ -3696,11 +5176,11 @@
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
       <c r="K215" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L215" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3710,11 +5190,11 @@
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F216" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G216" s="28"/>
@@ -3722,425 +5202,425 @@
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
       <c r="K216" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L216" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E217" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F217" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K217" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L217" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E218" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F218" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K218" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L218" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E219" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F219" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K219" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L219" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E220" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F220" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K220" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L220" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E221" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F221" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K221" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L221" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E222" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F222" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K222" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L222" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E223" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F223" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K223" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L223" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E224" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F224" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K224" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L224" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E225" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F225" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K225" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L225" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E226" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F226" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K226" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L226" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E227" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F227" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K227" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L227" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E228" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F228" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K228" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L228" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E229" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F229" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K229" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L229" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E230" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F230" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K230" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L230" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E231" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F231" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K231" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L231" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E232" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F232" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K232" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L232" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E233" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F233" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K233" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L233" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E234" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F234" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K234" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L234" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E235" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F235" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K235" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L235" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E236" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F236" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K236" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L236" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E237" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F237" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K237" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L237" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E238" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F238" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K238" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L238" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E239" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F239" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K239" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L239" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4150,11 +5630,11 @@
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F240" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G240" s="28"/>
@@ -4162,11 +5642,11 @@
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
       <c r="K240" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L240" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4176,11 +5656,11 @@
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F241" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G241" s="28"/>
@@ -4188,11 +5668,11 @@
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
       <c r="K241" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L241" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4202,11 +5682,11 @@
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F242" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G242" s="28"/>
@@ -4214,11 +5694,11 @@
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
       <c r="K242" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L242" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4228,11 +5708,11 @@
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F243" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G243" s="28"/>
@@ -4240,11 +5720,11 @@
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
       <c r="K243" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L243" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4254,11 +5734,11 @@
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F244" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G244" s="28"/>
@@ -4266,162 +5746,162 @@
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
       <c r="K244" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L244" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="49">
+      <c r="A245" s="50">
         <f>IFERROR(SUM(A210:A244),0)</f>
         <v>0</v>
       </c>
-      <c r="B245" s="49">
+      <c r="B245" s="50">
         <f>IFERROR(A245/C245,0)</f>
         <v>0</v>
       </c>
-      <c r="C245" s="49">
-        <f t="shared" ref="B245:E245" si="8">IFERROR(SUM(C210:C244),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D245" s="49">
+      <c r="C245" s="50">
+        <f t="shared" ref="C245:E245" si="15">IFERROR(SUM(C210:C244),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D245" s="50">
         <f>IFERROR(AVERAGE(D210:D244),0)</f>
         <v>0</v>
       </c>
-      <c r="E245" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F245" s="47">
+      <c r="E245" s="48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F245" s="48">
         <f>IFERROR(B245/D245,0)</f>
         <v>0</v>
       </c>
-      <c r="G245" s="47">
+      <c r="G245" s="48">
         <f>IFERROR(SUM(G210:G244),0)</f>
         <v>0</v>
       </c>
-      <c r="H245" s="47">
+      <c r="H245" s="48">
         <f>IFERROR(G245/I245,0)</f>
         <v>0</v>
       </c>
-      <c r="I245" s="47">
-        <f t="shared" ref="I245" si="9">IFERROR(SUM(I210:I244),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J245" s="47">
+      <c r="I245" s="48">
+        <f t="shared" ref="I245" si="16">IFERROR(SUM(I210:I244),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J245" s="48">
         <f>IFERROR(AVERAGE(J210:J244),0)</f>
         <v>0</v>
       </c>
-      <c r="K245" s="49">
-        <f t="shared" ref="K245" si="10">IFERROR(SUM(K210:K244),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L245" s="49">
+      <c r="K245" s="50">
+        <f t="shared" ref="K245" si="17">IFERROR(SUM(K210:K244),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L245" s="50">
         <f>IFERROR(H245/J245,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="50"/>
-      <c r="B246" s="50"/>
-      <c r="C246" s="50"/>
-      <c r="D246" s="50"/>
-      <c r="E246" s="48"/>
-      <c r="F246" s="48"/>
-      <c r="G246" s="48"/>
-      <c r="H246" s="48"/>
-      <c r="I246" s="48"/>
-      <c r="J246" s="48"/>
-      <c r="K246" s="50"/>
-      <c r="L246" s="50"/>
+      <c r="A246" s="51"/>
+      <c r="B246" s="51"/>
+      <c r="C246" s="51"/>
+      <c r="D246" s="51"/>
+      <c r="E246" s="49"/>
+      <c r="F246" s="49"/>
+      <c r="G246" s="49"/>
+      <c r="H246" s="49"/>
+      <c r="I246" s="49"/>
+      <c r="J246" s="49"/>
+      <c r="K246" s="51"/>
+      <c r="L246" s="51"/>
     </row>
     <row r="248" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="39" t="s">
+      <c r="A249" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B249" s="40"/>
-      <c r="C249" s="40"/>
-      <c r="D249" s="40"/>
-      <c r="E249" s="40"/>
-      <c r="F249" s="41"/>
-      <c r="G249" s="39" t="s">
+      <c r="B249" s="41"/>
+      <c r="C249" s="41"/>
+      <c r="D249" s="41"/>
+      <c r="E249" s="41"/>
+      <c r="F249" s="42"/>
+      <c r="G249" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H249" s="40"/>
-      <c r="I249" s="40"/>
-      <c r="J249" s="40"/>
-      <c r="K249" s="40"/>
-      <c r="L249" s="41"/>
+      <c r="H249" s="41"/>
+      <c r="I249" s="41"/>
+      <c r="J249" s="41"/>
+      <c r="K249" s="41"/>
+      <c r="L249" s="42"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="42"/>
-      <c r="B250" s="43"/>
-      <c r="C250" s="43"/>
-      <c r="D250" s="43"/>
-      <c r="E250" s="43"/>
-      <c r="F250" s="44"/>
-      <c r="G250" s="42"/>
-      <c r="H250" s="43"/>
-      <c r="I250" s="43"/>
-      <c r="J250" s="43"/>
-      <c r="K250" s="43"/>
-      <c r="L250" s="44"/>
+      <c r="A250" s="43"/>
+      <c r="B250" s="44"/>
+      <c r="C250" s="44"/>
+      <c r="D250" s="44"/>
+      <c r="E250" s="44"/>
+      <c r="F250" s="45"/>
+      <c r="G250" s="43"/>
+      <c r="H250" s="44"/>
+      <c r="I250" s="44"/>
+      <c r="J250" s="44"/>
+      <c r="K250" s="44"/>
+      <c r="L250" s="45"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="45" t="s">
+      <c r="A251" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B251" s="35" t="s">
+      <c r="B251" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C251" s="35" t="s">
+      <c r="C251" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D251" s="35" t="s">
+      <c r="D251" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E251" s="35" t="s">
+      <c r="E251" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F251" s="37" t="s">
+      <c r="F251" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G251" s="45" t="s">
+      <c r="G251" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H251" s="35" t="s">
+      <c r="H251" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I251" s="35" t="s">
+      <c r="I251" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="J251" s="35" t="s">
+      <c r="J251" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="K251" s="35" t="s">
+      <c r="K251" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L251" s="37" t="s">
+      <c r="L251" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="46"/>
-      <c r="B252" s="36"/>
-      <c r="C252" s="36"/>
-      <c r="D252" s="36"/>
-      <c r="E252" s="36"/>
-      <c r="F252" s="38"/>
-      <c r="G252" s="46"/>
-      <c r="H252" s="36"/>
-      <c r="I252" s="36"/>
-      <c r="J252" s="36"/>
-      <c r="K252" s="36"/>
-      <c r="L252" s="38"/>
+      <c r="A252" s="47"/>
+      <c r="B252" s="37"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="37"/>
+      <c r="E252" s="37"/>
+      <c r="F252" s="39"/>
+      <c r="G252" s="47"/>
+      <c r="H252" s="37"/>
+      <c r="I252" s="37"/>
+      <c r="J252" s="37"/>
+      <c r="K252" s="37"/>
+      <c r="L252" s="39"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="33"/>
@@ -4429,11 +5909,11 @@
       <c r="C253" s="34"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7">
-        <f t="shared" ref="E253:E287" si="11">IFERROR(C253*D253,0)</f>
+        <f t="shared" ref="E253:E287" si="18">IFERROR(C253*D253,0)</f>
         <v>0</v>
       </c>
       <c r="F253" s="29">
-        <f t="shared" ref="F253:F287" si="12">IFERROR(A253/E253,0)</f>
+        <f t="shared" ref="F253:F287" si="19">IFERROR(A253/E253,0)</f>
         <v>0</v>
       </c>
       <c r="G253" s="33"/>
@@ -4441,11 +5921,11 @@
       <c r="I253" s="34"/>
       <c r="J253" s="7"/>
       <c r="K253" s="7">
-        <f t="shared" ref="K253:K287" si="13">IFERROR(I253*J253,0)</f>
+        <f t="shared" ref="K253:K287" si="20">IFERROR(I253*J253,0)</f>
         <v>0</v>
       </c>
       <c r="L253" s="29">
-        <f t="shared" ref="L253:L287" si="14">IFERROR(G253/K253,0)</f>
+        <f t="shared" ref="L253:L287" si="21">IFERROR(G253/K253,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4455,11 +5935,11 @@
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F254" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G254" s="28"/>
@@ -4467,11 +5947,11 @@
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
       <c r="K254" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L254" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4481,11 +5961,11 @@
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F255" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G255" s="28"/>
@@ -4493,11 +5973,11 @@
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
       <c r="K255" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L255" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4507,11 +5987,11 @@
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F256" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G256" s="28"/>
@@ -4519,11 +5999,11 @@
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
       <c r="K256" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L256" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4533,11 +6013,11 @@
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F257" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G257" s="28"/>
@@ -4545,11 +6025,11 @@
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
       <c r="K257" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L257" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4559,11 +6039,11 @@
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F258" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G258" s="28"/>
@@ -4571,11 +6051,11 @@
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
       <c r="K258" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L258" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4585,11 +6065,11 @@
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F259" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G259" s="28"/>
@@ -4597,11 +6077,11 @@
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
       <c r="K259" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L259" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4611,11 +6091,11 @@
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F260" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G260" s="28"/>
@@ -4623,11 +6103,11 @@
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
       <c r="K260" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L260" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4637,11 +6117,11 @@
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F261" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G261" s="28"/>
@@ -4649,11 +6129,11 @@
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
       <c r="K261" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L261" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4663,11 +6143,11 @@
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F262" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G262" s="28"/>
@@ -4675,11 +6155,11 @@
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
       <c r="K262" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L262" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4689,11 +6169,11 @@
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F263" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G263" s="28"/>
@@ -4701,426 +6181,426 @@
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
       <c r="K263" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L263" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E264" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F264" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K264" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L264" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E265" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F265" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K265" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L265" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E266" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F266" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K266" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L266" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E267" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F267" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K267" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L267" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E268" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F268" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K268" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L268" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E269" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F269" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K269" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L269" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E270" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F270" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K270" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L270" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E271" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F271" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K271" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L271" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E272" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F272" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K272" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L272" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E273" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F273" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K273" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L273" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E274" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F274" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K274" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L274" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E275" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F275" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K275" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L275" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E276" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F276" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K276" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L276" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E277" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F277" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K277" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L277" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E278" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F278" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K278" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L278" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E279" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F279" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K279" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L279" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E280" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F280" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K280" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L280" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E281" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F281" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K281" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L281" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E282" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F282" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K282" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L282" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E283" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F283" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K283" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L283" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E284" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F284" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K284" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L284" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E285" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F285" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K285" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L285" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N285" s="7"/>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E286" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F286" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K286" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L286" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -5130,11 +6610,11 @@
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F287" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G287" s="28"/>
@@ -5142,78 +6622,78 @@
       <c r="I287" s="7"/>
       <c r="J287" s="7"/>
       <c r="K287" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L287" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A288" s="49">
+      <c r="A288" s="50">
         <f>IFERROR(SUM(A253:A287),0)</f>
         <v>0</v>
       </c>
-      <c r="B288" s="49">
+      <c r="B288" s="50">
         <f>IFERROR(A288/C288,0)</f>
         <v>0</v>
       </c>
-      <c r="C288" s="49">
-        <f t="shared" ref="C288" si="15">IFERROR(SUM(C253:C287),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D288" s="49">
+      <c r="C288" s="50">
+        <f t="shared" ref="C288" si="22">IFERROR(SUM(C253:C287),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D288" s="50">
         <f>IFERROR(AVERAGE(D253:D287),0)</f>
         <v>0</v>
       </c>
-      <c r="E288" s="49">
-        <f t="shared" ref="E288" si="16">IFERROR(SUM(E253:E287),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F288" s="49">
+      <c r="E288" s="50">
+        <f t="shared" ref="E288" si="23">IFERROR(SUM(E253:E287),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F288" s="50">
         <f>IFERROR(B288/D288,0)</f>
         <v>0</v>
       </c>
-      <c r="G288" s="49">
+      <c r="G288" s="50">
         <f>IFERROR(SUM(G253:G287),0)</f>
         <v>0</v>
       </c>
-      <c r="H288" s="49">
+      <c r="H288" s="50">
         <f>IFERROR(G288/I288,0)</f>
         <v>0</v>
       </c>
-      <c r="I288" s="49">
-        <f t="shared" ref="I288" si="17">IFERROR(SUM(I253:I287),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J288" s="49">
+      <c r="I288" s="50">
+        <f t="shared" ref="I288" si="24">IFERROR(SUM(I253:I287),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J288" s="50">
         <f>IFERROR(AVERAGE(J253:J287),0)</f>
         <v>0</v>
       </c>
-      <c r="K288" s="49">
-        <f t="shared" ref="K288" si="18">IFERROR(SUM(K253:K287),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L288" s="47">
+      <c r="K288" s="50">
+        <f t="shared" ref="K288" si="25">IFERROR(SUM(K253:K287),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L288" s="48">
         <f>IFERROR(H288/J288,0)</f>
         <v>0</v>
       </c>
       <c r="M288" s="7"/>
     </row>
     <row r="289" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="50"/>
-      <c r="B289" s="50"/>
-      <c r="C289" s="50"/>
-      <c r="D289" s="50"/>
-      <c r="E289" s="50"/>
-      <c r="F289" s="50"/>
-      <c r="G289" s="50"/>
-      <c r="H289" s="50"/>
-      <c r="I289" s="50"/>
-      <c r="J289" s="50"/>
-      <c r="K289" s="50"/>
-      <c r="L289" s="48"/>
+      <c r="A289" s="51"/>
+      <c r="B289" s="51"/>
+      <c r="C289" s="51"/>
+      <c r="D289" s="51"/>
+      <c r="E289" s="51"/>
+      <c r="F289" s="51"/>
+      <c r="G289" s="51"/>
+      <c r="H289" s="51"/>
+      <c r="I289" s="51"/>
+      <c r="J289" s="51"/>
+      <c r="K289" s="51"/>
+      <c r="L289" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="88">
